--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.35775708999015</v>
+        <v>10.34874566666667</v>
       </c>
       <c r="H2">
-        <v>5.35775708999015</v>
+        <v>31.046237</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.614862320492409</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6148623204924089</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>41.0290506458342</v>
+        <v>330.7489609370565</v>
       </c>
       <c r="R2">
-        <v>41.0290506458342</v>
+        <v>2976.740648433508</v>
       </c>
       <c r="S2">
-        <v>0.1388037246686551</v>
+        <v>0.240243048055427</v>
       </c>
       <c r="T2">
-        <v>0.1388037246686551</v>
+        <v>0.2402430480554269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.35775708999015</v>
+        <v>10.34874566666667</v>
       </c>
       <c r="H3">
-        <v>5.35775708999015</v>
+        <v>31.046237</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.614862320492409</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6148623204924089</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>141.0507830272881</v>
+        <v>272.66947523753</v>
       </c>
       <c r="R3">
-        <v>141.0507830272881</v>
+        <v>2454.02527713777</v>
       </c>
       <c r="S3">
-        <v>0.4771832090539915</v>
+        <v>0.1980563919449602</v>
       </c>
       <c r="T3">
-        <v>0.4771832090539915</v>
+        <v>0.1980563919449601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>10.34874566666667</v>
+      </c>
+      <c r="H4">
+        <v>31.046237</v>
+      </c>
+      <c r="I4">
+        <v>0.614862320492409</v>
+      </c>
+      <c r="J4">
+        <v>0.6148623204924089</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>23.48872</v>
+      </c>
+      <c r="N4">
+        <v>70.46616</v>
+      </c>
+      <c r="O4">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P4">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q4">
+        <v>243.0787893155467</v>
+      </c>
+      <c r="R4">
+        <v>2187.70910383992</v>
+      </c>
+      <c r="S4">
+        <v>0.1765628804920218</v>
+      </c>
+      <c r="T4">
+        <v>0.1765628804920218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5.35775708999015</v>
-      </c>
-      <c r="H4">
-        <v>5.35775708999015</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>21.1862127951093</v>
-      </c>
-      <c r="N4">
-        <v>21.1862127951093</v>
-      </c>
-      <c r="O4">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="P4">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="Q4">
-        <v>113.5105818130369</v>
-      </c>
-      <c r="R4">
-        <v>113.5105818130369</v>
-      </c>
-      <c r="S4">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="T4">
-        <v>0.3840130662773534</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.482251000000001</v>
+      </c>
+      <c r="H5">
+        <v>19.446753</v>
+      </c>
+      <c r="I5">
+        <v>0.3851376795075911</v>
+      </c>
+      <c r="J5">
+        <v>0.385137679507591</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>31.96029466666667</v>
+      </c>
+      <c r="N5">
+        <v>95.88088399999999</v>
+      </c>
+      <c r="O5">
+        <v>0.3907265741426954</v>
+      </c>
+      <c r="P5">
+        <v>0.3907265741426953</v>
+      </c>
+      <c r="Q5">
+        <v>207.1746520632947</v>
+      </c>
+      <c r="R5">
+        <v>1864.571868569652</v>
+      </c>
+      <c r="S5">
+        <v>0.1504835260872684</v>
+      </c>
+      <c r="T5">
+        <v>0.1504835260872684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.482251000000001</v>
+      </c>
+      <c r="H6">
+        <v>19.446753</v>
+      </c>
+      <c r="I6">
+        <v>0.3851376795075911</v>
+      </c>
+      <c r="J6">
+        <v>0.385137679507591</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>26.34807</v>
+      </c>
+      <c r="N6">
+        <v>79.04420999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="P6">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="Q6">
+        <v>170.79480310557</v>
+      </c>
+      <c r="R6">
+        <v>1537.15322795013</v>
+      </c>
+      <c r="S6">
+        <v>0.1240586333933104</v>
+      </c>
+      <c r="T6">
+        <v>0.1240586333933104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.482251000000001</v>
+      </c>
+      <c r="H7">
+        <v>19.446753</v>
+      </c>
+      <c r="I7">
+        <v>0.3851376795075911</v>
+      </c>
+      <c r="J7">
+        <v>0.385137679507591</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.48872</v>
+      </c>
+      <c r="N7">
+        <v>70.46616</v>
+      </c>
+      <c r="O7">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P7">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q7">
+        <v>152.25977870872</v>
+      </c>
+      <c r="R7">
+        <v>1370.33800837848</v>
+      </c>
+      <c r="S7">
+        <v>0.1105955200270122</v>
+      </c>
+      <c r="T7">
+        <v>0.1105955200270122</v>
       </c>
     </row>
   </sheetData>
